--- a/src/data/output/approver_validations/approver_validation_report.xlsx
+++ b/src/data/output/approver_validations/approver_validation_report.xlsx
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-09 22:13:06</t>
+          <t>2025-12-10 18:39:38</t>
         </is>
       </c>
     </row>
